--- a/biology/Botanique/Psilurus_incurvus/Psilurus_incurvus.xlsx
+++ b/biology/Botanique/Psilurus_incurvus/Psilurus_incurvus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilurus incurvus, le psilure aristé, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire de l'Ancien Monde. C'est l'unique espèce du genre Psilurus (genre monotypique).
 Étymologie
-Le nom générique Psilurus dérive de deux racines grecques, ψιλός (psilos), « nu » et οὐρά (ourá), « queue », en référence à l'aspect de l'inflorescence qui évoque une queue de rat[3].
-L'épithète spécifique, incurvus, est un adjectif latin signifiant « courbé », en référence à la forme de l'inflorescence[4].
+Le nom générique Psilurus dérive de deux racines grecques, ψιλός (psilos), « nu » et οὐρά (ourá), « queue », en référence à l'aspect de l'inflorescence qui évoque une queue de rat.
+L'épithète spécifique, incurvus, est un adjectif latin signifiant « courbé », en référence à la forme de l'inflorescence.
 </t>
         </is>
       </c>
@@ -514,11 +526,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Psilurus incurvus a été décrite pour la première fois par le botaniste français Antoine Gouan en 1762 dans Hortus Regius Monspeliensis sous le nom de Nardus incurva, et reclassée dans le genre Psilurus en 1913 dans Vierteljahrsschrift der Naturforschenden Gesellschaft in Zürich 58: 40. par les botanistes suisses Hans Schinz &amp; Albert Thellung[5].
-Synonymes
-Selon Catalogue of Life                                   (17 septembre 2017)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Psilurus incurvus a été décrite pour la première fois par le botaniste français Antoine Gouan en 1762 dans Hortus Regius Monspeliensis sous le nom de Nardus incurva, et reclassée dans le genre Psilurus en 1913 dans Vierteljahrsschrift der Naturforschenden Gesellschaft in Zürich 58: 40. par les botanistes suisses Hans Schinz &amp; Albert Thellung.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Psilurus_incurvus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilurus_incurvus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017) :
 Asprella aristata (L.) Kuntze
 Asprella nardiformis Host, nom. superfl.
 Nardus aristata L.
@@ -531,8 +580,43 @@
 Psilurus nardoides Trin., nom. superfl.
 Psilurus rottboellioides Griff.
 Rottboellia monandra Cav.
-Sous-espèces
-Selon Tropicos                                           (17 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Psilurus_incurvus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilurus_incurvus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Psilurus incurvus subsp. cristata
 Psilurus incurvus subsp. incurvus</t>
         </is>
